--- a/locInfo.xlsx
+++ b/locInfo.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51.50589376735081</v>
+        <v>52.12026842444845</v>
       </c>
       <c r="B3" t="n">
-        <v>36.50252106470391</v>
+        <v>66.5316746039444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>46.07705037737382</v>
+        <v>29.15449590969911</v>
       </c>
       <c r="B4" t="n">
-        <v>97.55979418318557</v>
+        <v>71.42477959503721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18.41829628639005</v>
+        <v>65.2229762800206</v>
       </c>
       <c r="B5" t="n">
-        <v>3.667595196687023</v>
+        <v>78.27032972524765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82.02601362919133</v>
+        <v>95.94415914037504</v>
       </c>
       <c r="B6" t="n">
-        <v>41.28562653058137</v>
+        <v>81.3159290718709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53.33206291919181</v>
+        <v>81.60535120043903</v>
       </c>
       <c r="B7" t="n">
-        <v>23.55718182916826</v>
+        <v>32.59416430570175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29.13414082225732</v>
+        <v>57.2627176981856</v>
       </c>
       <c r="B8" t="n">
-        <v>14.72701743289738</v>
+        <v>57.01276498417429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.01435235427628</v>
+        <v>88.50806573797249</v>
       </c>
       <c r="B9" t="n">
-        <v>23.26256509257405</v>
+        <v>98.51777181964125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98.01046059098441</v>
+        <v>84.35531474220238</v>
       </c>
       <c r="B10" t="n">
-        <v>13.40093465566934</v>
+        <v>28.20136745088965</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85.79976162342582</v>
+        <v>81.59413701639683</v>
       </c>
       <c r="B11" t="n">
-        <v>78.35750992909493</v>
+        <v>18.52918019468157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.03353320367764</v>
+        <v>80.61129912028942</v>
       </c>
       <c r="B12" t="n">
-        <v>75.65614968041692</v>
+        <v>78.94140433714074</v>
       </c>
     </row>
   </sheetData>
